--- a/FinalProject/Analysis_Carpenter/Paper Checklist.xlsx
+++ b/FinalProject/Analysis_Carpenter/Paper Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbry1\OneDrive\Documents\- Git Hub Repo Locations\DScourseS20\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbry1\OneDrive\Documents\- Git Hub Repo Locations\DScourseS20\FinalProject\Analysis_Carpenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1CA0C5-39A8-4D87-93F6-415CFDF66858}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE27F952-80B3-4E83-B456-06924BE6DCA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FC6F9B4-8B96-4F33-AA30-D65BAB77C244}"/>
+    <workbookView xWindow="-22597" yWindow="-3773" windowWidth="22695" windowHeight="14596" xr2:uid="{3FC6F9B4-8B96-4F33-AA30-D65BAB77C244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Category / Description</t>
   </si>
@@ -648,7 +648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20811E48-EE19-4D1D-9A8C-CC3528001D3D}">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -837,7 +839,9 @@
       <c r="C19" s="7">
         <v>5</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
@@ -846,7 +850,9 @@
       <c r="C20" s="7">
         <v>5</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
@@ -855,7 +861,9 @@
       <c r="C21" s="7">
         <v>5</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
@@ -864,7 +872,9 @@
       <c r="C22" s="7">
         <v>5</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
@@ -873,7 +883,9 @@
       <c r="C23" s="7">
         <v>5</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
@@ -882,7 +894,9 @@
       <c r="C24" s="5">
         <v>5</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -893,7 +907,7 @@
       </c>
       <c r="E25" s="15" t="str">
         <f>SUMIFS(C3:C24,E3:E24,"x") &amp; " | " &amp; TEXT(SUMIFS(C3:C24,E3:E24,"x") / C25,"#.0%")</f>
-        <v>95 | 63.3%</v>
+        <v>125 | 83.3%</v>
       </c>
     </row>
   </sheetData>
